--- a/Link/Links_Result.xlsx
+++ b/Link/Links_Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/Stackoverflow-data-analysis/Link/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -382,11 +382,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="2109013504"/>
-        <c:axId val="-2145263312"/>
+        <c:axId val="2107977408"/>
+        <c:axId val="-2129479840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109013504"/>
+        <c:axId val="2107977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145263312"/>
+        <c:crossAx val="-2129479840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -451,7 +451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145263312"/>
+        <c:axId val="-2129479840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180000.0"/>
@@ -502,7 +502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109013504"/>
+        <c:crossAx val="2107977408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,11 +798,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2122721376"/>
-        <c:axId val="-2125503776"/>
+        <c:axId val="2114762864"/>
+        <c:axId val="-2142726880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122721376"/>
+        <c:axId val="2114762864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125503776"/>
+        <c:crossAx val="-2142726880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125503776"/>
+        <c:axId val="-2142726880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122721376"/>
+        <c:crossAx val="2114762864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,7 +1190,7 @@
                   <c:v>1.701499E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.791119E6</c:v>
+                  <c:v>4.089479E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,12 +1237,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1588,7 +1585,7 @@
                   <c:v>1.756526E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3971564E7</c:v>
+                  <c:v>2.2214956E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,12 +1632,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5395,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5455,10 +5449,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5791119</v>
+        <v>4089479</v>
       </c>
       <c r="H31">
-        <v>23971564</v>
+        <v>22214956</v>
       </c>
     </row>
   </sheetData>

--- a/Link/Links_Result.xlsx
+++ b/Link/Links_Result.xlsx
@@ -382,11 +382,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="2107977408"/>
-        <c:axId val="-2129479840"/>
+        <c:axId val="-2106057616"/>
+        <c:axId val="-2087951376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107977408"/>
+        <c:axId val="-2106057616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129479840"/>
+        <c:crossAx val="-2087951376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -451,7 +451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129479840"/>
+        <c:axId val="-2087951376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180000.0"/>
@@ -472,6 +472,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -502,7 +503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107977408"/>
+        <c:crossAx val="-2106057616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,20 +588,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -618,9 +641,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -646,9 +671,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -689,20 +714,42 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -720,9 +767,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -748,9 +797,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -798,11 +847,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2114762864"/>
-        <c:axId val="-2142726880"/>
+        <c:axId val="-2107889456"/>
+        <c:axId val="-2111239136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114762864"/>
+        <c:axId val="-2107889456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,11 +863,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -830,9 +879,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -842,7 +893,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142726880"/>
+        <c:crossAx val="-2111239136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,33 +901,21 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142726880"/>
+        <c:axId val="-2111239136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -885,7 +924,33 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114762864"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107889456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -905,30 +970,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1091,6 +1151,7 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
@@ -1452,6 +1513,52 @@
                   <c:y val="0.125097696121318"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
+              <c:spPr>
+                <a:pattFill prst="pct75">
+                  <a:fgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -1486,6 +1593,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
@@ -2408,41 +2516,39 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -2455,149 +2561,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -2605,10 +2675,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2624,17 +2694,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2646,20 +2715,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2670,14 +2739,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2689,14 +2758,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2708,7 +2776,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2716,28 +2784,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2747,28 +2803,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2777,14 +2821,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2796,14 +2840,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2814,19 +2858,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -2834,7 +2869,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2842,7 +2877,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2850,17 +2885,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2873,14 +2907,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2892,12 +2926,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2906,7 +2947,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -2921,9 +2962,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2933,7 +2973,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2941,9 +2981,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2954,16 +2994,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2971,7 +3005,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5389,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Link/Links_Result.xlsx
+++ b/Link/Links_Result.xlsx
@@ -104,7 +104,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mj-ea"/>
@@ -112,18 +115,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Links in Russian Comments and posts</a:t>
+              <a:rPr lang="en-US" b="1" i="0"/>
+              <a:t>Links in RussianStackoverlfow( Comments and posts )</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN" b="1" i="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -143,7 +138,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mj-ea"/>
@@ -243,7 +241,7 @@
                 <c:v>stackoverflow</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>All_links</c:v>
+                <c:v>remain</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -254,13 +252,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2625.0</c:v>
+                  <c:v>2059.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5560.0</c:v>
+                  <c:v>4024.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175598.0</c:v>
+                  <c:v>82713.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,7 +346,7 @@
                 <c:v>stackoverflow</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>All_links</c:v>
+                <c:v>remain</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -359,13 +357,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4556.0</c:v>
+                  <c:v>4227.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3580.0</c:v>
+                  <c:v>3414.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49238.0</c:v>
+                  <c:v>44142.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,11 +380,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-2106057616"/>
-        <c:axId val="-2087951376"/>
+        <c:axId val="-2143042576"/>
+        <c:axId val="-2143046208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2106057616"/>
+        <c:axId val="-2143042576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +426,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -443,7 +441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087951376"/>
+        <c:crossAx val="-2143046208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -451,10 +449,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087951376"/>
+        <c:axId val="-2143046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180000.0"/>
+          <c:max val="85000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -503,9 +502,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106057616"/>
+        <c:crossAx val="-2143042576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10000.0"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -577,6 +577,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> in Russian stackoverflow</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -617,13 +672,7 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -643,9 +692,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -671,9 +718,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -701,10 +748,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5560.0</c:v>
+                  <c:v>4024.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3580.0</c:v>
+                  <c:v>3414.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,13 +790,7 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -769,9 +810,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -797,9 +836,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -827,10 +866,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2625.0</c:v>
+                  <c:v>2509.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4556.0</c:v>
+                  <c:v>4227.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,11 +886,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2107889456"/>
-        <c:axId val="-2111239136"/>
+        <c:axId val="2116458800"/>
+        <c:axId val="2116455488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107889456"/>
+        <c:axId val="2116458800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,11 +902,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -881,9 +920,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -893,7 +930,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111239136"/>
+        <c:crossAx val="2116455488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111239136"/>
+        <c:axId val="2116455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,9 +948,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -921,6 +958,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -938,9 +976,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -950,7 +986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107889456"/>
+        <c:crossAx val="2116458800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -967,28 +1003,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1245,13 +1270,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>141.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.701499E6</c:v>
+                  <c:v>1.605754E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.089479E6</c:v>
+                  <c:v>3.688811E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,52 +1538,6 @@
                   <c:y val="0.125097696121318"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
-              <c:spPr>
-                <a:pattFill prst="pct75">
-                  <a:fgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:bgClr>
-                </a:pattFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -1687,13 +1666,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>82.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.756526E6</c:v>
+                  <c:v>1.424445E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2214956E7</c:v>
+                  <c:v>1.0795693E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,33 +2495,29 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2550,45 +2525,35 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2597,15 +2562,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2617,9 +2589,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2627,9 +2599,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2637,12 +2609,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2651,20 +2623,18 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2676,9 +2646,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2694,16 +2664,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2715,20 +2683,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2739,14 +2707,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2758,13 +2726,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2776,7 +2744,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2784,14 +2752,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2803,14 +2771,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2821,14 +2789,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2840,14 +2808,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2858,9 +2826,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2869,7 +2835,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2877,7 +2843,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2885,16 +2851,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2907,17 +2871,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2926,19 +2890,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2947,13 +2901,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2962,9 +2917,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2973,7 +2926,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2981,9 +2934,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2994,9 +2947,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -3005,7 +2956,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4217,14 +4168,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -4247,16 +4198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4363,6 +4314,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4421,6 +4377,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4483,6 +4444,11 @@
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4537,6 +4503,11 @@
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4591,6 +4562,11 @@
         <a:prstGeom prst="curvedDownArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4649,6 +4625,11 @@
         <a:prstGeom prst="curvedDownArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4702,6 +4683,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4728,7 +4714,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>3458025</a:t>
+            <a:t>3030199</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -4757,6 +4743,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4783,7 +4774,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>7181</a:t>
+            <a:t>6286</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -4812,6 +4803,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4838,7 +4834,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>9140</a:t>
+            <a:t>7438</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -4867,6 +4863,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4893,7 +4894,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>223</a:t>
+            <a:t>205</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -4922,6 +4923,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4948,7 +4954,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>224836</a:t>
+            <a:t>132938</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4976,6 +4982,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5002,7 +5013,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>29762683</a:t>
+            <a:t>17514908</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
@@ -5423,70 +5434,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>2625</v>
+        <v>2059</v>
       </c>
       <c r="B1">
-        <v>4556</v>
+        <v>4227</v>
       </c>
       <c r="K1">
-        <v>5560</v>
+        <v>4024</v>
       </c>
       <c r="L1">
-        <v>2625</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5560</v>
+        <v>4024</v>
       </c>
       <c r="B2">
-        <v>3580</v>
+        <v>3414</v>
       </c>
       <c r="K2">
-        <v>3580</v>
+        <v>3414</v>
       </c>
       <c r="L2">
-        <v>4556</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>175598</v>
+        <v>82713</v>
       </c>
       <c r="B3">
-        <v>49238</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H29">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1701499</v>
+        <v>1605754</v>
       </c>
       <c r="H30">
-        <v>1756526</v>
+        <v>1424445</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4089479</v>
+        <v>3688811</v>
       </c>
       <c r="H31">
-        <v>22214956</v>
+        <v>10795693</v>
       </c>
     </row>
   </sheetData>
